--- a/Cálculo Todos.xlsx
+++ b/Cálculo Todos.xlsx
@@ -543,38 +543,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Grupo Grupo A</t>
+          <t>Grupo D</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.582129345047005</v>
+        <v>2.729817496050043</v>
       </c>
       <c r="I2" t="n">
-        <v>77</v>
+        <v>297.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="K2" t="n">
-        <v>77</v>
+        <v>73.5</v>
       </c>
       <c r="L2" t="n">
         <v>3.15</v>
@@ -583,28 +583,28 @@
         <v>2.2</v>
       </c>
       <c r="N2" t="n">
-        <v>152.069241631666</v>
+        <v>183.3593614329581</v>
       </c>
       <c r="O2" t="n">
-        <v>197.6900141211659</v>
+        <v>238.3671698628455</v>
       </c>
       <c r="P2" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R2" t="n">
-        <v>11.54874357542757</v>
+        <v>9.863251636448817</v>
       </c>
       <c r="S2" t="n">
-        <v>14.8959738263195</v>
+        <v>12.58562578783888</v>
       </c>
       <c r="T2" t="n">
-        <v>39.53800282423317</v>
+        <v>39.72786164380759</v>
       </c>
       <c r="U2" t="n">
-        <v>33.56611698098962</v>
+        <v>39.72786164380759</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Todos.xlsx
+++ b/Cálculo Todos.xlsx
@@ -1,37 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georges\Desktop\Mine\Proyectos CT1212\Ascensores\AscensoresCT1212\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6780"/>
   </bookViews>
   <sheets>
-    <sheet name="Calculo Todos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Calculo Grupo A" sheetId="3" r:id="rId1"/>
+    <sheet name="Calculo Grupo B" sheetId="4" r:id="rId2"/>
+    <sheet name="Calculo Grupo C" sheetId="5" r:id="rId3"/>
+    <sheet name="Calculo Grupo D" sheetId="6" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="25">
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Ascensores</t>
+  </si>
+  <si>
+    <t>Zona expresa</t>
+  </si>
+  <si>
+    <t>Pisos Servidos</t>
+  </si>
+  <si>
+    <t>Pisos no servidos</t>
+  </si>
+  <si>
+    <t>Pisos totales</t>
+  </si>
+  <si>
+    <t>Velocidad Nominal</t>
+  </si>
+  <si>
+    <t>Ref. Vel. Nominal</t>
+  </si>
+  <si>
+    <t>Recorrido superior</t>
+  </si>
+  <si>
+    <t>Recorrido expreso</t>
+  </si>
+  <si>
+    <t>Recorrido superior servido</t>
+  </si>
+  <si>
+    <t>Tiempo de apertura y cierre</t>
+  </si>
+  <si>
+    <t>Tiempo de entrada y salida</t>
+  </si>
+  <si>
+    <t>Tiempo de Viaje Completo</t>
+  </si>
+  <si>
+    <t>Tiempo Total de viaje</t>
+  </si>
+  <si>
+    <t>Capacidad Nominal</t>
+  </si>
+  <si>
+    <t>Personas por viaje</t>
+  </si>
+  <si>
+    <t>Paradas Probables</t>
+  </si>
+  <si>
+    <t>C (&gt;12)</t>
+  </si>
+  <si>
+    <t>I (&lt;40)</t>
+  </si>
+  <si>
+    <t>Tiempo de llenado</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +134,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,191 +458,570 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Grupo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ascensores</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Zona expresa</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Pisos Servidos</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Pisos no servidos</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Pisos totales</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Velocidad Nominal</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Ref. Vel. Nominal</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Recorrido superior</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Recorrido expreso</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Recorrido superior servido</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Tiempo de apertura y cierre</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Tiempo de entrada y salida</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Tiempo de Viaje Completo</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Tiempo Total de viaje</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Capacidad Nominal</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Personas por viaje</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Paradas Probables</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>C (&gt;12)</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>I (&lt;40)</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Tiempo de llenado</t>
-        </is>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Grupo D</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>2.5821293450470049</v>
+      </c>
+      <c r="I2">
+        <v>77</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>77</v>
+      </c>
+      <c r="L2">
+        <v>3.15</v>
+      </c>
+      <c r="M2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N2">
+        <v>152.06924163166599</v>
+      </c>
+      <c r="O2">
+        <v>197.69001412116589</v>
+      </c>
+      <c r="P2">
+        <v>22</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>11.54874357542757</v>
+      </c>
+      <c r="S2">
+        <v>14.8959738263195</v>
+      </c>
+      <c r="T2">
+        <v>39.538002824233168</v>
+      </c>
+      <c r="U2">
+        <v>33.566116980989619</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
         <v>6</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>44</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>2.5821293450470049</v>
+      </c>
+      <c r="I2">
+        <v>154</v>
+      </c>
+      <c r="J2">
+        <v>77</v>
+      </c>
+      <c r="K2">
+        <v>77</v>
+      </c>
+      <c r="L2">
+        <v>3.15</v>
+      </c>
+      <c r="M2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N2">
+        <v>172.30498294157201</v>
+      </c>
+      <c r="O2">
+        <v>223.99647782404361</v>
+      </c>
+      <c r="P2">
+        <v>22</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>11.54874357542757</v>
+      </c>
+      <c r="S2">
+        <v>15.775883467525819</v>
+      </c>
+      <c r="T2">
+        <v>37.332746304007273</v>
+      </c>
+      <c r="U2">
+        <v>31.693946081006171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>21</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>43</v>
+      </c>
+      <c r="F2">
         <v>64</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>2.541435334301307</v>
+      </c>
+      <c r="I2">
+        <v>224</v>
+      </c>
+      <c r="J2">
+        <v>150.5</v>
+      </c>
+      <c r="K2">
+        <v>73.5</v>
+      </c>
+      <c r="L2">
+        <v>3.15</v>
+      </c>
+      <c r="M2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N2">
+        <v>184.4043822126624</v>
+      </c>
+      <c r="O2">
+        <v>239.72569687646109</v>
+      </c>
+      <c r="P2">
+        <v>22</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>11.379658038180599</v>
+      </c>
+      <c r="S2">
+        <v>15.402219037913421</v>
+      </c>
+      <c r="T2">
+        <v>39.954282812743521</v>
+      </c>
+      <c r="U2">
+        <v>32.462854785354111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>64</v>
+      </c>
+      <c r="F2">
         <v>85</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>2.729817496050043</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>297.5</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>224</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>73.5</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>3.15</v>
       </c>
-      <c r="M2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N2" t="n">
-        <v>183.3593614329581</v>
-      </c>
-      <c r="O2" t="n">
-        <v>238.3671698628455</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="M2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N2">
+        <v>183.35936143295811</v>
+      </c>
+      <c r="O2">
+        <v>238.36716986284549</v>
+      </c>
+      <c r="P2">
         <v>19</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>13</v>
       </c>
-      <c r="R2" t="n">
-        <v>9.863251636448817</v>
-      </c>
-      <c r="S2" t="n">
-        <v>12.58562578783888</v>
-      </c>
-      <c r="T2" t="n">
-        <v>39.72786164380759</v>
-      </c>
-      <c r="U2" t="n">
-        <v>39.72786164380759</v>
+      <c r="R2">
+        <v>9.8632516364488172</v>
+      </c>
+      <c r="S2">
+        <v>12.585625787838881</v>
+      </c>
+      <c r="T2">
+        <v>39.727861643807593</v>
+      </c>
+      <c r="U2">
+        <v>39.727861643807593</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Todos.xlsx
+++ b/Cálculo Todos.xlsx
@@ -569,7 +569,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['Grupo A', 'Grupo A', 'Grupo A', 'Grupo A', 'Grupo A', 'Grupo A', 'Grupo A']</t>
+          <t>Grupo A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -762,7 +762,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['Grupo B', 'Grupo B', 'Grupo B', 'Grupo B', 'Grupo B', 'Grupo B', 'Grupo B']</t>
+          <t>Grupo B</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -955,7 +955,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['Grupo C', 'Grupo C', 'Grupo C', 'Grupo C', 'Grupo C', 'Grupo C', 'Grupo C']</t>
+          <t>Grupo C</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1148,7 +1148,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['Grupo D', 'Grupo D', 'Grupo D', 'Grupo D', 'Grupo D', 'Grupo D', 'Grupo D']</t>
+          <t>Grupo D</t>
         </is>
       </c>
       <c r="B2" t="n">
